--- a/personal_portfolios/n9017097/Release 2/burn-down-chart.xlsx
+++ b/personal_portfolios/n9017097/Release 2/burn-down-chart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott Fletcher\Documents\QUT\IFB 299 - Application Design and Development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott Fletcher\Documents\GitHub\IFB299-Music-School\personal_portfolios\n9017097\Release 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -221,6 +221,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -355,7 +361,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -708,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,12 +781,18 @@
       <c r="D9">
         <v>110</v>
       </c>
+      <c r="E9">
+        <v>116</v>
+      </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10">
+        <v>70</v>
+      </c>
+      <c r="E10">
         <v>70</v>
       </c>
     </row>
